--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="192">
   <si>
     <t>ModuleName</t>
   </si>
@@ -449,61 +449,163 @@
     <t>CRMScheduleNotification</t>
   </si>
   <si>
-    <t>WF1_CRM_Schedule_Notify</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
     <t>Send notification</t>
   </si>
   <si>
-    <t>ScheduleNotification</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4362006786</t>
-  </si>
-  <si>
-    <t>7979432109</t>
-  </si>
-  <si>
-    <t>9422810651</t>
-  </si>
-  <si>
-    <t>8021536308</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-01-17 06:21:14 PM</t>
-  </si>
-  <si>
-    <t>93336</t>
-  </si>
-  <si>
-    <t>1031474148</t>
-  </si>
-  <si>
-    <t>6366599286</t>
-  </si>
-  <si>
-    <t>2679824219</t>
-  </si>
-  <si>
-    <t>4476937647</t>
-  </si>
-  <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-22 06:06:10 PM</t>
-  </si>
-  <si>
-    <t>93619</t>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 10:56:15 AM</t>
+  </si>
+  <si>
+    <t>93932</t>
+  </si>
+  <si>
+    <t>WF1_ScheduleNotify_Hourly</t>
+  </si>
+  <si>
+    <t>3090069141</t>
+  </si>
+  <si>
+    <t>9155924580</t>
+  </si>
+  <si>
+    <t>4228929724</t>
+  </si>
+  <si>
+    <t>9212580250</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ScheduleNotificationHourly</t>
+  </si>
+  <si>
+    <t>4302414620</t>
+  </si>
+  <si>
+    <t>6090686213</t>
+  </si>
+  <si>
+    <t>2200453259</t>
+  </si>
+  <si>
+    <t>0130064126</t>
+  </si>
+  <si>
+    <t>3575180433</t>
+  </si>
+  <si>
+    <t>6661025835</t>
+  </si>
+  <si>
+    <t>7256450956</t>
+  </si>
+  <si>
+    <t>1523164619</t>
+  </si>
+  <si>
+    <t>2024-01-24 01:39:32 PM</t>
+  </si>
+  <si>
+    <t>93938</t>
+  </si>
+  <si>
+    <t>0316727414</t>
+  </si>
+  <si>
+    <t>8820642672</t>
+  </si>
+  <si>
+    <t>3179628734</t>
+  </si>
+  <si>
+    <t>3619902794</t>
+  </si>
+  <si>
+    <t>2024-01-24 02:14:57 PM</t>
+  </si>
+  <si>
+    <t>93940</t>
+  </si>
+  <si>
+    <t>5873609353</t>
+  </si>
+  <si>
+    <t>3862735404</t>
+  </si>
+  <si>
+    <t>2274606720</t>
+  </si>
+  <si>
+    <t>2163924559</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 02:26:58 PM</t>
+  </si>
+  <si>
+    <t>94417</t>
+  </si>
+  <si>
+    <t>0384502564</t>
+  </si>
+  <si>
+    <t>2409554161</t>
+  </si>
+  <si>
+    <t>7402822336</t>
+  </si>
+  <si>
+    <t>3687507008</t>
+  </si>
+  <si>
+    <t>2024-02-16 02:38:14 PM</t>
+  </si>
+  <si>
+    <t>94419</t>
+  </si>
+  <si>
+    <t>5304032030</t>
+  </si>
+  <si>
+    <t>9608861963</t>
+  </si>
+  <si>
+    <t>3268590957</t>
+  </si>
+  <si>
+    <t>5623802432</t>
+  </si>
+  <si>
+    <t>2024-02-16 05:25:18 PM</t>
+  </si>
+  <si>
+    <t>94462</t>
+  </si>
+  <si>
+    <t>1194995717</t>
+  </si>
+  <si>
+    <t>8582253236</t>
+  </si>
+  <si>
+    <t>6326494223</t>
+  </si>
+  <si>
+    <t>7441636102</t>
+  </si>
+  <si>
+    <t>2024-02-16 05:39:16 PM</t>
+  </si>
+  <si>
+    <t>94476</t>
   </si>
 </sst>
 </file>
@@ -585,7 +687,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8D8D6454-8F0D-4769-B332-1C23F80F7728}" diskRevisions="1" revisionId="448" version="21">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{35EB9B94-9277-4374-87F5-3FFDFEE2267D}" diskRevisions="1" revisionId="450" version="23">
   <header guid="{6A0EF4ED-47BD-46C1-93FD-8103A2945C43}" dateTime="2023-12-29T12:47:43" maxSheetId="2" userName="Sudhakar Rsoft" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -735,6 +837,22 @@
     </sheetIdMap>
   </header>
   <header guid="{8D8D6454-8F0D-4769-B332-1C23F80F7728}" dateTime="2024-01-12T12:38:15" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId21" minRId="440" maxRId="448">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FC1F9C61-E10D-4060-A7F9-8B8480068FD1}" dateTime="2024-01-24T13:31:51" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId22" minRId="449">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35EB9B94-9277-4374-87F5-3FFDFEE2267D}" dateTime="2024-01-24T13:35:14" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId23" minRId="450">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2129,6 +2247,42 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="449" sId="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>WF1_CRM_Schedule_Notify</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>WF1_ScheduleNotify_Hourly</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="450" sId="1">
+    <oc r="AI2" t="inlineStr">
+      <is>
+        <t>ScheduleNotification</t>
+      </is>
+    </oc>
+    <nc r="AI2" t="inlineStr">
+      <is>
+        <t>ScheduleNotificationHourly</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
+  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="8" sId="1">
@@ -5794,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5832,7 +5986,7 @@
     <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
     <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="28.6328125"/>
     <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="18.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="23.7265625"/>
     <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
     <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
     <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
@@ -6012,7 +6166,7 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -6024,7 +6178,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6048,13 +6202,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6093,31 +6247,31 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="AI2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6129,7 +6283,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6141,7 +6295,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6152,8 +6306,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AB1">
+      <selection activeCell="AI2" sqref="AI2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6403,7 +6557,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6478,7 +6632,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6502,7 +6656,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6514,7 +6668,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6769,7 +6923,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6844,7 +6998,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -6868,7 +7022,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -6880,7 +7034,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7135,7 +7289,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7210,7 +7364,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7234,7 +7388,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7246,7 +7400,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="212">
   <si>
     <t>ModuleName</t>
   </si>
@@ -606,6 +606,66 @@
   </si>
   <si>
     <t>94476</t>
+  </si>
+  <si>
+    <t>7856317035</t>
+  </si>
+  <si>
+    <t>8112493821</t>
+  </si>
+  <si>
+    <t>4506195518</t>
+  </si>
+  <si>
+    <t>5142281547</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:33:44 PM</t>
+  </si>
+  <si>
+    <t>97686</t>
+  </si>
+  <si>
+    <t>2731067316</t>
+  </si>
+  <si>
+    <t>9155040024</t>
+  </si>
+  <si>
+    <t>5683362226</t>
+  </si>
+  <si>
+    <t>3059601147</t>
+  </si>
+  <si>
+    <t>2813215443</t>
+  </si>
+  <si>
+    <t>0952316974</t>
+  </si>
+  <si>
+    <t>8230120282</t>
+  </si>
+  <si>
+    <t>4803916963</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-03-12 11:00:06 AM</t>
+  </si>
+  <si>
+    <t>97834</t>
   </si>
 </sst>
 </file>
@@ -6178,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6202,13 +6262,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6247,13 +6307,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6271,7 +6331,7 @@
         <v>149</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6283,7 +6343,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6295,7 +6355,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6557,7 +6617,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6632,7 +6692,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6656,7 +6716,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6668,7 +6728,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6923,7 +6983,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -6998,7 +7058,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7022,7 +7082,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7034,7 +7094,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7289,7 +7349,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7364,7 +7424,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7388,7 +7448,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7400,7 +7460,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="273">
   <si>
     <t>ModuleName</t>
   </si>
@@ -786,6 +786,69 @@
   </si>
   <si>
     <t>122120</t>
+  </si>
+  <si>
+    <t>2146106502</t>
+  </si>
+  <si>
+    <t>4377279230</t>
+  </si>
+  <si>
+    <t>9683922144</t>
+  </si>
+  <si>
+    <t>2574237909</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>27-05-2024</t>
+  </si>
+  <si>
+    <t>30-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>6855734575</t>
+  </si>
+  <si>
+    <t>5743601790</t>
+  </si>
+  <si>
+    <t>5486539106</t>
+  </si>
+  <si>
+    <t>5571061169</t>
+  </si>
+  <si>
+    <t>3764734978</t>
+  </si>
+  <si>
+    <t>5438895854</t>
+  </si>
+  <si>
+    <t>7618590043</t>
+  </si>
+  <si>
+    <t>2259631347</t>
+  </si>
+  <si>
+    <t>125620</t>
+  </si>
+  <si>
+    <t>1481696994</t>
+  </si>
+  <si>
+    <t>2506260541</t>
+  </si>
+  <si>
+    <t>6843540293</t>
+  </si>
+  <si>
+    <t>3319911342</t>
+  </si>
+  <si>
+    <t>125622</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1421,13 +1484,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>197</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1466,13 +1529,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1487,10 +1550,10 @@
         <v>150</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1502,7 +1565,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1514,7 +1577,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1776,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1851,7 +1914,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1875,7 +1938,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1887,7 +1950,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2142,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2217,7 +2280,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2241,7 +2304,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2253,7 +2316,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2508,7 +2571,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2583,7 +2646,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2607,7 +2670,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2619,7 +2682,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="280">
   <si>
     <t>ModuleName</t>
   </si>
@@ -849,6 +849,27 @@
   </si>
   <si>
     <t>125622</t>
+  </si>
+  <si>
+    <t>0325555887</t>
+  </si>
+  <si>
+    <t>8083598845</t>
+  </si>
+  <si>
+    <t>2212029859</t>
+  </si>
+  <si>
+    <t>3284231907</t>
+  </si>
+  <si>
+    <t>28-05-2024</t>
+  </si>
+  <si>
+    <t>31-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>126172</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1484,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>197</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1529,13 +1550,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1553,7 +1574,7 @@
         <v>256</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1565,7 +1586,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1577,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1839,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1914,7 +1935,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1938,7 +1959,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1950,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2205,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2280,7 +2301,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2304,7 +2325,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2316,7 +2337,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2571,7 +2592,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2646,7 +2667,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2670,7 +2691,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2682,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="292">
   <si>
     <t>ModuleName</t>
   </si>
@@ -870,6 +870,42 @@
   </si>
   <si>
     <t>126172</t>
+  </si>
+  <si>
+    <t>9840038614</t>
+  </si>
+  <si>
+    <t>9840095459</t>
+  </si>
+  <si>
+    <t>9840058942</t>
+  </si>
+  <si>
+    <t>9840013004</t>
+  </si>
+  <si>
+    <t>11-07-2024</t>
+  </si>
+  <si>
+    <t>14-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>136735</t>
+  </si>
+  <si>
+    <t>9840032145</t>
+  </si>
+  <si>
+    <t>9840080966</t>
+  </si>
+  <si>
+    <t>9840017825</t>
+  </si>
+  <si>
+    <t>9840017166</t>
+  </si>
+  <si>
+    <t>136755</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1517,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1505,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>197</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1550,13 +1586,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1574,7 +1610,7 @@
         <v>256</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1586,7 +1622,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1598,7 +1634,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1860,7 +1896,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1935,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1959,7 +1995,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1971,7 +2007,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2226,7 +2262,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2301,7 +2337,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2325,7 +2361,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2337,7 +2373,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2592,7 +2628,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2667,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2691,7 +2727,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2703,7 +2739,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_Hourly_Test.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="1"/>
   </customWorkbookViews>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="160">
   <si>
     <t>ModuleName</t>
   </si>
@@ -455,457 +451,61 @@
     <t>Send notification</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>2024-01-24 10:56:15 AM</t>
-  </si>
-  <si>
-    <t>93932</t>
-  </si>
-  <si>
     <t>WF1_ScheduleNotify_Hourly</t>
   </si>
   <si>
-    <t>3090069141</t>
-  </si>
-  <si>
-    <t>9155924580</t>
-  </si>
-  <si>
-    <t>4228929724</t>
-  </si>
-  <si>
-    <t>9212580250</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>ScheduleNotificationHourly</t>
   </si>
   <si>
-    <t>4302414620</t>
-  </si>
-  <si>
-    <t>6090686213</t>
-  </si>
-  <si>
-    <t>2200453259</t>
-  </si>
-  <si>
-    <t>0130064126</t>
-  </si>
-  <si>
-    <t>3575180433</t>
-  </si>
-  <si>
-    <t>6661025835</t>
-  </si>
-  <si>
-    <t>7256450956</t>
-  </si>
-  <si>
-    <t>1523164619</t>
-  </si>
-  <si>
-    <t>2024-01-24 01:39:32 PM</t>
-  </si>
-  <si>
-    <t>93938</t>
-  </si>
-  <si>
-    <t>0316727414</t>
-  </si>
-  <si>
-    <t>8820642672</t>
-  </si>
-  <si>
-    <t>3179628734</t>
-  </si>
-  <si>
-    <t>3619902794</t>
-  </si>
-  <si>
-    <t>2024-01-24 02:14:57 PM</t>
-  </si>
-  <si>
-    <t>93940</t>
-  </si>
-  <si>
-    <t>5873609353</t>
-  </si>
-  <si>
-    <t>3862735404</t>
-  </si>
-  <si>
-    <t>2274606720</t>
-  </si>
-  <si>
-    <t>2163924559</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2024-02-16 02:26:58 PM</t>
-  </si>
-  <si>
-    <t>94417</t>
-  </si>
-  <si>
-    <t>0384502564</t>
-  </si>
-  <si>
-    <t>2409554161</t>
-  </si>
-  <si>
-    <t>7402822336</t>
-  </si>
-  <si>
-    <t>3687507008</t>
-  </si>
-  <si>
-    <t>2024-02-16 02:38:14 PM</t>
-  </si>
-  <si>
-    <t>94419</t>
-  </si>
-  <si>
-    <t>5304032030</t>
-  </si>
-  <si>
-    <t>9608861963</t>
-  </si>
-  <si>
-    <t>3268590957</t>
-  </si>
-  <si>
-    <t>5623802432</t>
-  </si>
-  <si>
-    <t>2024-02-16 05:25:18 PM</t>
-  </si>
-  <si>
-    <t>94462</t>
-  </si>
-  <si>
-    <t>1194995717</t>
-  </si>
-  <si>
-    <t>8582253236</t>
-  </si>
-  <si>
-    <t>6326494223</t>
-  </si>
-  <si>
-    <t>7441636102</t>
-  </si>
-  <si>
-    <t>2024-02-16 05:39:16 PM</t>
-  </si>
-  <si>
-    <t>94476</t>
-  </si>
-  <si>
-    <t>7856317035</t>
-  </si>
-  <si>
-    <t>8112493821</t>
-  </si>
-  <si>
-    <t>4506195518</t>
-  </si>
-  <si>
-    <t>5142281547</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-03-06 07:33:44 PM</t>
-  </si>
-  <si>
-    <t>97686</t>
-  </si>
-  <si>
-    <t>2731067316</t>
-  </si>
-  <si>
-    <t>9155040024</t>
-  </si>
-  <si>
-    <t>5683362226</t>
-  </si>
-  <si>
-    <t>3059601147</t>
-  </si>
-  <si>
-    <t>2813215443</t>
-  </si>
-  <si>
-    <t>0952316974</t>
-  </si>
-  <si>
-    <t>8230120282</t>
-  </si>
-  <si>
-    <t>4803916963</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>2024-03-12 11:00:06 AM</t>
-  </si>
-  <si>
-    <t>97834</t>
-  </si>
-  <si>
-    <t>2814616038</t>
-  </si>
-  <si>
-    <t>6662787417</t>
-  </si>
-  <si>
-    <t>8995180714</t>
-  </si>
-  <si>
-    <t>3562440690</t>
-  </si>
-  <si>
-    <t>1334066270</t>
-  </si>
-  <si>
-    <t>0047870053</t>
-  </si>
-  <si>
-    <t>5241214895</t>
-  </si>
-  <si>
-    <t>3113077019</t>
-  </si>
-  <si>
-    <t>10-04-2024</t>
-  </si>
-  <si>
-    <t>10-04-2024 03:21:24 PM</t>
-  </si>
-  <si>
-    <t>122097</t>
-  </si>
-  <si>
-    <t>9170894804</t>
-  </si>
-  <si>
-    <t>7056439362</t>
-  </si>
-  <si>
-    <t>6869933309</t>
-  </si>
-  <si>
-    <t>1478299414</t>
-  </si>
-  <si>
-    <t>1197095265</t>
-  </si>
-  <si>
-    <t>6270022367</t>
-  </si>
-  <si>
-    <t>7451722514</t>
-  </si>
-  <si>
-    <t>1250439852</t>
-  </si>
-  <si>
-    <t>10-04-2024 04:03:17 PM</t>
-  </si>
-  <si>
-    <t>122099</t>
-  </si>
-  <si>
-    <t>6149524774</t>
-  </si>
-  <si>
-    <t>6441974887</t>
-  </si>
-  <si>
-    <t>8319083099</t>
-  </si>
-  <si>
-    <t>6615030122</t>
-  </si>
-  <si>
-    <t>10-04-2024 05:42:44 PM</t>
-  </si>
-  <si>
-    <t>122112</t>
-  </si>
-  <si>
-    <t>3618731943</t>
-  </si>
-  <si>
-    <t>8198086081</t>
-  </si>
-  <si>
-    <t>3528585079</t>
-  </si>
-  <si>
-    <t>8707850418</t>
-  </si>
-  <si>
-    <t>10-04-2024 06:27:40 PM</t>
-  </si>
-  <si>
-    <t>122114</t>
-  </si>
-  <si>
-    <t>2510037068</t>
-  </si>
-  <si>
-    <t>4421465113</t>
-  </si>
-  <si>
-    <t>5161844140</t>
-  </si>
-  <si>
-    <t>4546686663</t>
-  </si>
-  <si>
-    <t>11-04-2024</t>
-  </si>
-  <si>
-    <t>11-04-2024 12:47:01 PM</t>
-  </si>
-  <si>
-    <t>122120</t>
-  </si>
-  <si>
-    <t>2146106502</t>
-  </si>
-  <si>
-    <t>4377279230</t>
-  </si>
-  <si>
-    <t>9683922144</t>
-  </si>
-  <si>
-    <t>2574237909</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>27-05-2024</t>
-  </si>
-  <si>
-    <t>30-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>6855734575</t>
-  </si>
-  <si>
-    <t>5743601790</t>
-  </si>
-  <si>
-    <t>5486539106</t>
-  </si>
-  <si>
-    <t>5571061169</t>
-  </si>
-  <si>
-    <t>3764734978</t>
-  </si>
-  <si>
-    <t>5438895854</t>
-  </si>
-  <si>
-    <t>7618590043</t>
-  </si>
-  <si>
-    <t>2259631347</t>
-  </si>
-  <si>
-    <t>125620</t>
-  </si>
-  <si>
-    <t>1481696994</t>
-  </si>
-  <si>
-    <t>2506260541</t>
-  </si>
-  <si>
-    <t>6843540293</t>
-  </si>
-  <si>
-    <t>3319911342</t>
-  </si>
-  <si>
-    <t>125622</t>
-  </si>
-  <si>
-    <t>0325555887</t>
-  </si>
-  <si>
-    <t>8083598845</t>
-  </si>
-  <si>
-    <t>2212029859</t>
-  </si>
-  <si>
-    <t>3284231907</t>
-  </si>
-  <si>
-    <t>28-05-2024</t>
-  </si>
-  <si>
-    <t>31-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>126172</t>
-  </si>
-  <si>
-    <t>9840038614</t>
-  </si>
-  <si>
-    <t>9840095459</t>
-  </si>
-  <si>
-    <t>9840058942</t>
-  </si>
-  <si>
-    <t>9840013004</t>
-  </si>
-  <si>
     <t>11-07-2024</t>
   </si>
   <si>
-    <t>14-07-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>136735</t>
-  </si>
-  <si>
-    <t>9840032145</t>
-  </si>
-  <si>
-    <t>9840080966</t>
-  </si>
-  <si>
-    <t>9840017825</t>
-  </si>
-  <si>
-    <t>9840017166</t>
-  </si>
-  <si>
     <t>136755</t>
+  </si>
+  <si>
+    <t>30-12-2024</t>
+  </si>
+  <si>
+    <t>30-12-2024 06:51:54 PM</t>
+  </si>
+  <si>
+    <t>9840098597</t>
+  </si>
+  <si>
+    <t>9840029717</t>
+  </si>
+  <si>
+    <t>9840087310</t>
+  </si>
+  <si>
+    <t>9840026547</t>
+  </si>
+  <si>
+    <t>9840007161</t>
+  </si>
+  <si>
+    <t>9840095151</t>
+  </si>
+  <si>
+    <t>9840012772</t>
+  </si>
+  <si>
+    <t>9840054299</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158760</t>
   </si>
 </sst>
 </file>
@@ -984,42 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{35EB9B94-9277-4374-87F5-3FFDFEE2267D}" diskRevisions="1" revisionId="450" version="23">
-  <header guid="{35EB9B94-9277-4374-87F5-3FFDFEE2267D}" dateTime="2024-01-24T13:35:14" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId23" minRId="450">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="450" sId="1">
-    <oc r="AI2" t="inlineStr">
-      <is>
-        <t>ScheduleNotification</t>
-      </is>
-    </oc>
-    <nc r="AI2" t="inlineStr">
-      <is>
-        <t>ScheduleNotificationHourly</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="delete"/>
-  <rcv guid="{65A6858D-7219-405D-B85D-01E367F321A3}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,62 +851,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="24.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" style="2" width="8.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="13" style="2" width="8.7265625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" style="2" width="8.7265625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" style="2" width="8.7265625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" style="2" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="13" style="2" width="8.7109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" style="2" width="8.7109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" style="2" width="8.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="28.6328125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="23.7265625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="22.08984375"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="28.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="23.7109375"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="22.140625"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" customWidth="true" style="2" width="25.81640625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.85546875"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1500,12 +1064,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -1517,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1541,13 +1105,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1586,13 +1150,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1604,13 +1168,13 @@
         <v>140</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1622,7 +1186,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1634,7 +1198,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1669,59 +1233,59 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1896,7 +1460,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1971,7 +1535,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1995,7 +1559,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -2007,7 +1571,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2035,59 +1599,59 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="12.6328125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +1809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -2262,7 +1826,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2337,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2361,7 +1925,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2373,7 +1937,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2401,59 +1965,59 @@
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="8.0"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2175,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -2628,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2703,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2727,7 +2291,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>289</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2739,7 +2303,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>
